--- a/biology/Histoire de la zoologie et de la botanique/Albert_Vayssière/Albert_Vayssière.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Vayssière/Albert_Vayssière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albert_Vayssi%C3%A8re</t>
+          <t>Albert_Vayssière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Vayssière (8 juillet 1854 – 13 janvier 1942), de son nom complet Albert Jean Baptiste Marie Vayssière, est un zoologiste français spécialisé dans l'étude des mollusques opisthobranches[1] et en entomologie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Vayssière (8 juillet 1854 – 13 janvier 1942), de son nom complet Albert Jean Baptiste Marie Vayssière, est un zoologiste français spécialisé dans l'étude des mollusques opisthobranches et en entomologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albert_Vayssi%C3%A8re</t>
+          <t>Albert_Vayssière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Vayssière est un ancien élève puis professeur du lycée Thiers de Marseille[3]. Il participe aux voyages d'exploration organisés par Albert Ier de Monaco.[citation nécessaire] Il est nommé directeur du Muséum d'histoire naturelle de Marseille en 1915[2] puis directeur de la station marine d'Endoume de 1921 à 1924.
-Il est l'ami de Jean-Henri Fabre[2], et le père de Paul Vayssière, botaniste et agronome. [citation nécessaire]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Vayssière est un ancien élève puis professeur du lycée Thiers de Marseille. Il participe aux voyages d'exploration organisés par Albert Ier de Monaco.[citation nécessaire] Il est nommé directeur du Muséum d'histoire naturelle de Marseille en 1915 puis directeur de la station marine d'Endoume de 1921 à 1924.
+Il est l'ami de Jean-Henri Fabre, et le père de Paul Vayssière, botaniste et agronome. [citation nécessaire]
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albert_Vayssi%C3%A8re</t>
+          <t>Albert_Vayssière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
